--- a/storages/database_V1/knowledgeTest_data.xlsx
+++ b/storages/database_V1/knowledgeTest_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,6 +2787,128 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hd543708</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HND963221</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storages/database_V1/knowledgeTest_data.xlsx
+++ b/storages/database_V1/knowledgeTest_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2909,6 +2909,128 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HND117655</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>d706185</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
